--- a/medicine/Enfance/Alain_Raimbault/Alain_Raimbault.xlsx
+++ b/medicine/Enfance/Alain_Raimbault/Alain_Raimbault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Raimbault est un poète et romancier français né à Paris le 28 janvier 1966.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été enseignant de français, d'histoire et de géographie à Bressuire, il émigre au Canada en 1998 et obtient un poste d’enseignant à l’école Rose-des-Vents de Greenwood en Nouvelle-Écosse, la seule école francophone de la vallée d'Annapolis[1]. Il a publié des poèmes et des nouvelles dans diverses revues de la francophonie. Il écrit des romans pour la jeunesse, des recueils de poésies dont des haïkus et des romans pour adultes. En 2006, il a obtenu le prix Grand-Pré pour l'ensemble de son œuvre et en 2007 le prix Émile-Ollivier remis par le Conseil supérieur de la langue française à Québec. Alain Raimbault réside aujourd'hui à Longueuil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été enseignant de français, d'histoire et de géographie à Bressuire, il émigre au Canada en 1998 et obtient un poste d’enseignant à l’école Rose-des-Vents de Greenwood en Nouvelle-Écosse, la seule école francophone de la vallée d'Annapolis. Il a publié des poèmes et des nouvelles dans diverses revues de la francophonie. Il écrit des romans pour la jeunesse, des recueils de poésies dont des haïkus et des romans pour adultes. En 2006, il a obtenu le prix Grand-Pré pour l'ensemble de son œuvre et en 2007 le prix Émile-Ollivier remis par le Conseil supérieur de la langue française à Québec. Alain Raimbault réside aujourd'hui à Longueuil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poésie
 Mon île muette, recueil de haïkus, Éditions David, Ottawa, 2001
@@ -580,9 +596,43 @@
 Hier pour rien, éditions L'instant même, Québec, 2023 (Finaliste 2023 de Prix littéraire Europe 1 / GMF, France)
 Récit et nouvelle
 Inventaire du Sud, éditions L'instant même, Québec, 2010
-Sans gravité, éditions L'instant même, Québec, 2020
-Prix et distinctions
-Prix Grand-Pré 2006 pour l'ensemble de son œuvre
+Sans gravité, éditions L'instant même, Québec, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Raimbault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Raimbault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Grand-Pré 2006 pour l'ensemble de son œuvre
 Prix Émile-Ollivier 2007
 Prix de mérite pour un artiste établi 2007</t>
         </is>
